--- a/analysis/participant_extractedmetrics/participant250.xlsx
+++ b/analysis/participant_extractedmetrics/participant250.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="73">
+  <si>
+    <t>total</t>
+  </si>
   <si>
     <t/>
   </si>
@@ -126,6 +129,9 @@
     <t>Respondent ratio (%)</t>
   </si>
   <si>
+    <t>post gem</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
   </si>
   <si>
     <t>var5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post </t>
   </si>
   <si>
     <t>arg1</t>
@@ -229,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -240,6 +249,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,12 +270,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,635 +514,650 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.0</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.0</v>
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>60.0</v>
+        <v>24.0</v>
       </c>
       <c r="F4" s="1">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J4" s="1">
         <v>4.0</v>
       </c>
-      <c r="I4" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>15.0</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1">
-        <v>289.0</v>
+        <v>31.0</v>
       </c>
       <c r="P4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1">
         <v>2.0</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="1">
-        <v>4.0</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U4" s="1">
-        <v>369.0</v>
+        <v>100.0</v>
       </c>
       <c r="V4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>216.81</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>15958.84</v>
+        <v>60.0</v>
       </c>
       <c r="F5" s="1">
-        <v>4062.59</v>
+        <v>15.0</v>
       </c>
       <c r="G5" s="1">
-        <v>483.81</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="1">
-        <v>550.69</v>
+        <v>4.0</v>
       </c>
       <c r="I5" s="1">
-        <v>1001.05</v>
+        <v>4.0</v>
       </c>
       <c r="J5" s="1">
-        <v>4062.59</v>
+        <v>15.0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1">
-        <v>233.56</v>
+        <v>1.0</v>
       </c>
       <c r="M5" s="1">
-        <v>233.68</v>
+        <v>1.0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1">
-        <v>73488.36</v>
+        <v>289.0</v>
       </c>
       <c r="P5" s="1">
-        <v>233.68</v>
+        <v>1.0</v>
       </c>
       <c r="Q5" s="1">
-        <v>550.55</v>
+        <v>2.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1">
-        <v>817.4</v>
+        <v>4.0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="1">
-        <v>126954.45</v>
+        <v>369.0</v>
       </c>
       <c r="V5" s="1">
-        <v>233.68</v>
+        <v>1.0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="1">
-        <v>483.81</v>
+        <v>1.0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>0.05</v>
+        <v>216.81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>3.52</v>
+        <v>15958.84</v>
       </c>
       <c r="F6" s="1">
-        <v>0.9</v>
+        <v>4062.59</v>
       </c>
       <c r="G6" s="1">
-        <v>0.11</v>
+        <v>483.81</v>
       </c>
       <c r="H6" s="1">
-        <v>0.12</v>
+        <v>550.69</v>
       </c>
       <c r="I6" s="1">
-        <v>0.22</v>
+        <v>1001.05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.9</v>
+        <v>4062.59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
-        <v>0.05</v>
+        <v>233.56</v>
       </c>
       <c r="M6" s="1">
-        <v>0.05</v>
+        <v>233.68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1">
-        <v>29.39</v>
+        <v>73488.36</v>
       </c>
       <c r="P6" s="1">
-        <v>0.05</v>
+        <v>233.68</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.12</v>
+        <v>550.55</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1">
-        <v>0.18</v>
+        <v>817.4</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U6" s="1">
-        <v>28.03</v>
+        <v>126954.45</v>
       </c>
       <c r="V6" s="1">
-        <v>0.05</v>
+        <v>233.68</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.11</v>
+        <v>483.81</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
-        <v>216.81</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>265.98</v>
+        <v>3.52</v>
       </c>
       <c r="F7" s="1">
-        <v>270.84</v>
+        <v>0.9</v>
       </c>
       <c r="G7" s="1">
-        <v>483.81</v>
+        <v>0.11</v>
       </c>
       <c r="H7" s="1">
-        <v>137.67</v>
+        <v>0.12</v>
       </c>
       <c r="I7" s="1">
-        <v>250.26</v>
+        <v>0.22</v>
       </c>
       <c r="J7" s="1">
-        <v>270.84</v>
+        <v>0.9</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
-        <v>233.56</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="1">
-        <v>233.68</v>
+        <v>0.05</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1">
-        <v>254.28</v>
+        <v>29.39</v>
       </c>
       <c r="P7" s="1">
-        <v>233.68</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" s="1">
-        <v>275.28</v>
+        <v>0.12</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1">
-        <v>204.35</v>
+        <v>0.18</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="1">
-        <v>344.05</v>
+        <v>28.03</v>
       </c>
       <c r="V7" s="1">
-        <v>233.68</v>
+        <v>0.05</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="1">
-        <v>483.81</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>216.81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>317.19</v>
+        <v>265.98</v>
       </c>
       <c r="F8" s="1">
-        <v>66.74</v>
+        <v>270.84</v>
       </c>
       <c r="G8" s="1">
         <v>483.81</v>
       </c>
       <c r="H8" s="1">
-        <v>66.69</v>
+        <v>137.67</v>
       </c>
       <c r="I8" s="1">
-        <v>66.74</v>
+        <v>250.26</v>
       </c>
       <c r="J8" s="1">
-        <v>66.74</v>
+        <v>270.84</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1">
         <v>233.56</v>
@@ -1128,229 +1166,379 @@
         <v>233.68</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1">
-        <v>183.45</v>
+        <v>254.28</v>
       </c>
       <c r="P8" s="1">
         <v>233.68</v>
       </c>
       <c r="Q8" s="1">
-        <v>66.74</v>
+        <v>275.28</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" s="1">
-        <v>417.05</v>
+        <v>204.35</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" s="1">
-        <v>160.89</v>
+        <v>344.05</v>
       </c>
       <c r="V8" s="1">
         <v>233.68</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="1">
         <v>483.81</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>216.81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>317.19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>66.74</v>
+      </c>
+      <c r="G9" s="1">
+        <v>483.81</v>
+      </c>
+      <c r="H9" s="1">
+        <v>66.69</v>
+      </c>
+      <c r="I9" s="1">
+        <v>66.74</v>
+      </c>
+      <c r="J9" s="1">
+        <v>66.74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>233.56</v>
+      </c>
+      <c r="M9" s="1">
+        <v>233.68</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1">
+        <v>183.45</v>
+      </c>
+      <c r="P9" s="1">
+        <v>233.68</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>66.74</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1">
+        <v>417.05</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="1">
+        <v>160.89</v>
+      </c>
+      <c r="V9" s="1">
+        <v>233.68</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>483.81</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1431,21 +1619,37 @@
         <v>0.0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>0.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>16.0</v>
@@ -1466,7 +1670,7 @@
         <v>3.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1">
         <v>0.0</v>
@@ -1475,7 +1679,7 @@
         <v>0.0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" s="1">
         <v>31.0</v>
@@ -1487,13 +1691,13 @@
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S17" s="1">
         <v>1.0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U17" s="1">
         <v>49.0</v>
@@ -1502,36 +1706,52 @@
         <v>0.0</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y17" s="1">
         <v>0.0</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>49.0</v>
@@ -1552,7 +1772,7 @@
         <v>14.0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1">
         <v>1.0</v>
@@ -1561,7 +1781,7 @@
         <v>1.0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" s="1">
         <v>289.0</v>
@@ -1573,13 +1793,13 @@
         <v>2.0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" s="1">
         <v>2.0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U18" s="1">
         <v>149.0</v>
@@ -1588,36 +1808,52 @@
         <v>1.0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y18" s="1">
         <v>1.0</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>216.81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>13772.98</v>
@@ -1638,7 +1874,7 @@
         <v>3795.7</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1">
         <v>233.56</v>
@@ -1647,7 +1883,7 @@
         <v>233.68</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" s="1">
         <v>73488.36</v>
@@ -1659,13 +1895,13 @@
         <v>550.55</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S19" s="1">
         <v>533.79</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U19" s="1">
         <v>49022.93</v>
@@ -1674,36 +1910,52 @@
         <v>233.68</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="1">
         <v>483.81</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>0.11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>6.79</v>
@@ -1724,7 +1976,7 @@
         <v>1.87</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1">
         <v>0.12</v>
@@ -1733,7 +1985,7 @@
         <v>0.12</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1">
         <v>29.39</v>
@@ -1745,13 +1997,13 @@
         <v>0.27</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" s="1">
         <v>0.26</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U20" s="1">
         <v>24.17</v>
@@ -1760,36 +2012,52 @@
         <v>0.12</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y20" s="1">
         <v>0.24</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>216.81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>281.08</v>
@@ -1810,7 +2078,7 @@
         <v>271.12</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1">
         <v>233.56</v>
@@ -1819,7 +2087,7 @@
         <v>233.68</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="1">
         <v>254.28</v>
@@ -1831,13 +2099,13 @@
         <v>275.28</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S21" s="1">
         <v>266.89</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U21" s="1">
         <v>329.01</v>
@@ -1846,36 +2114,52 @@
         <v>233.68</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y21" s="1">
         <v>483.81</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>216.81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>317.19</v>
@@ -1896,7 +2180,7 @@
         <v>66.74</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1">
         <v>233.56</v>
@@ -1905,7 +2189,7 @@
         <v>233.68</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" s="1">
         <v>183.45</v>
@@ -1917,13 +2201,13 @@
         <v>66.74</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S22" s="1">
         <v>417.05</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1">
         <v>160.89</v>
@@ -1932,25 +2216,894 @@
         <v>233.68</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y22" s="1">
         <v>483.81</v>
       </c>
       <c r="Z22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="4">
+        <v>289.0</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="4">
+        <v>219.0</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2185.86</v>
+      </c>
+      <c r="F31" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="4">
+        <v>73488.36</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="4">
+        <v>77714.65</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="4">
+        <v>29.39</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="4">
+        <v>31.18</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4">
+        <v>198.71</v>
+      </c>
+      <c r="F33" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="4">
+        <v>254.28</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="4">
+        <v>141.81</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="4">
+        <v>354.86</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4">
+        <v>133.44</v>
+      </c>
+      <c r="F34" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="4">
+        <v>166.88</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4">
+        <v>266.89</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="4">
+        <v>183.45</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="4">
+        <v>116.73</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="4">
+        <v>367.08</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1967,132 +3120,132 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>9.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>13.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>1.0</v>
@@ -2104,48 +3257,48 @@
         <v>43.0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>14.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>168.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>2.0</v>
@@ -2157,48 +3310,48 @@
         <v>163.0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>2817.7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>36517.29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>615.24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>633.9</v>
@@ -2210,48 +3363,48 @@
         <v>55066.71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>1.31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>33.05</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>0.29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0.3</v>
@@ -2263,48 +3416,48 @@
         <v>25.64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>201.26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>217.36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>205.08</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>316.95</v>
@@ -2316,48 +3469,48 @@
         <v>337.83</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>167.1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>113.26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>283.65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>350.29</v>
@@ -2369,136 +3522,136 @@
         <v>150.12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>100.0</v>
@@ -2546,33 +3699,33 @@
         <v>0.0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>8.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>13.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
@@ -2584,48 +3737,48 @@
         <v>24.0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>13.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>168.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
         <v>2.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1">
         <v>2.0</v>
@@ -2637,48 +3790,48 @@
         <v>99.0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>2636.23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>36517.29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>433.77</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1">
         <v>633.9</v>
@@ -2690,48 +3843,48 @@
         <v>32091.68</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>2.53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>33.05</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
         <v>0.42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1">
         <v>0.61</v>
@@ -2743,48 +3896,48 @@
         <v>30.77</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>202.79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>217.36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <v>216.89</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
         <v>316.95</v>
@@ -2796,48 +3949,48 @@
         <v>324.16</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>167.1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <v>113.26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>283.65</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1">
         <v>350.29</v>
@@ -2849,25 +4002,748 @@
         <v>150.12</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4">
+        <v>168.0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4">
+        <v>36517.29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="K29" s="4">
+        <v>22639.99</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4">
+        <v>33.05</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="K30" s="4">
+        <v>20.59</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4">
+        <v>217.36</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="K31" s="4">
+        <v>353.75</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>113.26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="4">
+        <v>181.47</v>
+      </c>
+      <c r="K32" s="4">
+        <v>565.86</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2884,279 +4760,279 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>100.0</v>
@@ -3288,12 +5164,12 @@
         <v>0.0</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>5.0</v>
@@ -3338,7 +5214,7 @@
         <v>3.0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1">
         <v>0.0</v>
@@ -3350,13 +5226,13 @@
         <v>4.0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U4" s="1">
         <v>2.0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W4" s="1">
         <v>4.0</v>
@@ -3365,7 +5241,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="1">
         <v>0.0</v>
@@ -3374,22 +5250,22 @@
         <v>0.0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="1">
         <v>0.0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF4" s="1">
         <v>19.0</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH4" s="1">
         <v>88.0</v>
@@ -3407,7 +5283,7 @@
         <v>2.0</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN4" s="1">
         <v>0.0</v>
@@ -3419,18 +5295,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>9.0</v>
@@ -3475,7 +5351,7 @@
         <v>4.0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1">
         <v>1.0</v>
@@ -3487,13 +5363,13 @@
         <v>6.0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="1">
         <v>3.0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W5" s="1">
         <v>6.0</v>
@@ -3502,7 +5378,7 @@
         <v>1.0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="1">
         <v>1.0</v>
@@ -3511,22 +5387,22 @@
         <v>1.0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC5" s="1">
         <v>2.0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="1">
         <v>28.0</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH5" s="1">
         <v>317.0</v>
@@ -3544,7 +5420,7 @@
         <v>3.0</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN5" s="1">
         <v>1.0</v>
@@ -3556,18 +5432,18 @@
         <v>1.0</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>2377.55</v>
@@ -3612,7 +5488,7 @@
         <v>1101.51</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1">
         <v>183.49</v>
@@ -3624,13 +5500,13 @@
         <v>1066.84</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U6" s="1">
         <v>632.93</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W6" s="1">
         <v>1768.58</v>
@@ -3639,7 +5515,7 @@
         <v>150.2</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="1">
         <v>567.57</v>
@@ -3648,22 +5524,22 @@
         <v>133.5</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="1">
         <v>350.4</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="1">
         <v>7290.77</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH6" s="1">
         <v>138330.91</v>
@@ -3681,7 +5557,7 @@
         <v>825.76</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN6" s="1">
         <v>166.88</v>
@@ -3693,18 +5569,18 @@
         <v>150.2</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>0.63</v>
@@ -3749,7 +5625,7 @@
         <v>0.29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1">
         <v>0.05</v>
@@ -3761,13 +5637,13 @@
         <v>0.28</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="1">
         <v>0.17</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W7" s="1">
         <v>0.47</v>
@@ -3776,7 +5652,7 @@
         <v>0.04</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z7" s="1">
         <v>0.15</v>
@@ -3785,22 +5661,22 @@
         <v>0.04</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC7" s="1">
         <v>0.09</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF7" s="1">
         <v>1.93</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH7" s="1">
         <v>36.56</v>
@@ -3818,7 +5694,7 @@
         <v>0.22</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN7" s="1">
         <v>0.04</v>
@@ -3830,18 +5706,18 @@
         <v>0.04</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
         <v>264.17</v>
@@ -3886,7 +5762,7 @@
         <v>275.38</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1">
         <v>183.49</v>
@@ -3898,13 +5774,13 @@
         <v>177.81</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" s="1">
         <v>210.98</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W8" s="1">
         <v>294.76</v>
@@ -3913,7 +5789,7 @@
         <v>150.2</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="1">
         <v>567.57</v>
@@ -3922,22 +5798,22 @@
         <v>133.5</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC8" s="1">
         <v>175.2</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="1">
         <v>260.38</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH8" s="1">
         <v>436.38</v>
@@ -3955,7 +5831,7 @@
         <v>275.25</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN8" s="1">
         <v>166.88</v>
@@ -3967,18 +5843,18 @@
         <v>150.2</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>283.62</v>
@@ -4023,7 +5899,7 @@
         <v>150.2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="1">
         <v>183.49</v>
@@ -4035,13 +5911,13 @@
         <v>166.86</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U9" s="1">
         <v>200.19</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W9" s="1">
         <v>283.62</v>
@@ -4050,7 +5926,7 @@
         <v>150.2</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="1">
         <v>567.57</v>
@@ -4059,22 +5935,22 @@
         <v>133.5</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="1">
         <v>283.64</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF9" s="1">
         <v>166.86</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH9" s="1">
         <v>133.46</v>
@@ -4092,7 +5968,7 @@
         <v>375.26</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN9" s="1">
         <v>166.88</v>
@@ -4104,295 +5980,295 @@
         <v>150.2</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>100.0</v>
@@ -4524,12 +6400,12 @@
         <v>0.0</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>5.0</v>
@@ -4574,7 +6450,7 @@
         <v>3.0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="1">
         <v>0.0</v>
@@ -4586,13 +6462,13 @@
         <v>4.0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U17" s="1">
         <v>2.0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W17" s="1">
         <v>4.0</v>
@@ -4601,7 +6477,7 @@
         <v>0.0</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="1">
         <v>0.0</v>
@@ -4610,22 +6486,22 @@
         <v>0.0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC17" s="1">
         <v>0.0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF17" s="1">
         <v>19.0</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH17" s="1">
         <v>59.0</v>
@@ -4643,7 +6519,7 @@
         <v>2.0</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN17" s="1">
         <v>0.0</v>
@@ -4655,18 +6531,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>9.0</v>
@@ -4711,7 +6587,7 @@
         <v>4.0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="1">
         <v>1.0</v>
@@ -4723,13 +6599,13 @@
         <v>6.0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U18" s="1">
         <v>3.0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W18" s="1">
         <v>6.0</v>
@@ -4738,7 +6614,7 @@
         <v>1.0</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z18" s="1">
         <v>1.0</v>
@@ -4747,22 +6623,22 @@
         <v>1.0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC18" s="1">
         <v>2.0</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF18" s="1">
         <v>28.0</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="1">
         <v>163.0</v>
@@ -4780,7 +6656,7 @@
         <v>3.0</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN18" s="1">
         <v>1.0</v>
@@ -4792,18 +6668,18 @@
         <v>1.0</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>2377.55</v>
@@ -4848,7 +6724,7 @@
         <v>1101.51</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="1">
         <v>183.49</v>
@@ -4860,13 +6736,13 @@
         <v>1066.84</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U19" s="1">
         <v>632.93</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W19" s="1">
         <v>1768.58</v>
@@ -4875,7 +6751,7 @@
         <v>150.2</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="1">
         <v>567.57</v>
@@ -4884,22 +6760,22 @@
         <v>133.5</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC19" s="1">
         <v>350.4</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF19" s="1">
         <v>7290.77</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH19" s="1">
         <v>85757.2</v>
@@ -4917,7 +6793,7 @@
         <v>825.76</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN19" s="1">
         <v>166.88</v>
@@ -4929,18 +6805,18 @@
         <v>150.2</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>0.99</v>
@@ -4985,7 +6861,7 @@
         <v>0.46</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="1">
         <v>0.08</v>
@@ -4997,13 +6873,13 @@
         <v>0.44</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U20" s="1">
         <v>0.26</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W20" s="1">
         <v>0.74</v>
@@ -5012,7 +6888,7 @@
         <v>0.06</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z20" s="1">
         <v>0.24</v>
@@ -5021,22 +6897,22 @@
         <v>0.06</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC20" s="1">
         <v>0.15</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF20" s="1">
         <v>3.04</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH20" s="1">
         <v>35.75</v>
@@ -5054,7 +6930,7 @@
         <v>0.34</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN20" s="1">
         <v>0.07</v>
@@ -5066,18 +6942,18 @@
         <v>0.06</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>264.17</v>
@@ -5122,7 +6998,7 @@
         <v>275.38</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="1">
         <v>183.49</v>
@@ -5134,13 +7010,13 @@
         <v>177.81</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U21" s="1">
         <v>210.98</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W21" s="1">
         <v>294.76</v>
@@ -5149,7 +7025,7 @@
         <v>150.2</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z21" s="1">
         <v>567.57</v>
@@ -5158,22 +7034,22 @@
         <v>133.5</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC21" s="1">
         <v>175.2</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="1">
         <v>260.38</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH21" s="1">
         <v>526.12</v>
@@ -5191,7 +7067,7 @@
         <v>275.25</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN21" s="1">
         <v>166.88</v>
@@ -5203,18 +7079,18 @@
         <v>150.2</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>283.62</v>
@@ -5259,7 +7135,7 @@
         <v>150.2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="1">
         <v>183.49</v>
@@ -5271,13 +7147,13 @@
         <v>166.86</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1">
         <v>200.19</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W22" s="1">
         <v>283.62</v>
@@ -5286,7 +7162,7 @@
         <v>150.2</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="1">
         <v>567.57</v>
@@ -5295,22 +7171,22 @@
         <v>133.5</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC22" s="1">
         <v>283.64</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF22" s="1">
         <v>166.86</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH22" s="1">
         <v>133.46</v>
@@ -5328,7 +7204,7 @@
         <v>375.26</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN22" s="1">
         <v>166.88</v>
@@ -5340,16 +7216,1141 @@
         <v>150.2</v>
       </c>
       <c r="AQ22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AR22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>0</v>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>152.0</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="4">
+        <v>30198.04</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>51572.47</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>37.49</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="4">
+        <v>260.33</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>339.29</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="4">
+        <v>767.49</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>1935.34</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>